--- a/최종 정리본/xlsx--csv/Conference_Data/220603 - ResNet.xlsx
+++ b/최종 정리본/xlsx--csv/Conference_Data/220603 - ResNet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\issac\Documents\GitHub\Data\최종 정리본\xlsx--csv\Conference_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD752C4-2B84-4934-80B4-74E731EA93EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F6A79E-6C71-44C5-87CD-CDC5B9070D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17040" yWindow="720" windowWidth="11760" windowHeight="10710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11355" yWindow="1485" windowWidth="10125" windowHeight="6375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,18 +35,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Original</t>
+    <t>original images</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Mask R-CNN</t>
+    <t>masked images</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Proposed Method</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>Mask R-CNN</t>
   </si>
 </sst>
 </file>
@@ -98,9 +100,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1267,10 +1272,10 @@
                   <c:v>0.9889</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.5</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.5</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.82220000000000004</c:v>
@@ -1312,10 +1317,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.5</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.5333</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.83330000000000004</c:v>
@@ -1333,7 +1338,7 @@
                   <c:v>0.9667</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.56669999999999998</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.94440000000000002</c:v>
@@ -1351,7 +1356,7 @@
                   <c:v>0.94440000000000002</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.61109999999999998</c:v>
+                  <c:v>0.71109999999999995</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>0.78890000000000005</c:v>
@@ -1360,10 +1365,10 @@
                   <c:v>0.76670000000000005</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.57779999999999998</c:v>
+                  <c:v>0.71109999999999995</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.5</c:v>
+                  <c:v>0.78890000000000005</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>0.87780000000000002</c:v>
@@ -1396,25 +1401,25 @@
                   <c:v>0.93330000000000002</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.5</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.65559999999999996</c:v>
+                  <c:v>0.87780000000000002</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.5</c:v>
+                  <c:v>0.71109999999999995</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.5444</c:v>
+                  <c:v>0.78890000000000005</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.63329999999999997</c:v>
+                  <c:v>0.87780000000000002</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.55559999999999998</c:v>
+                  <c:v>0.9667</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.5111</c:v>
+                  <c:v>0.9667</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>0.72219999999999995</c:v>
@@ -1796,7 +1801,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Original</c:v>
+                  <c:v>masked images</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1871,34 +1876,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.53110999999999997</c:v>
+                  <c:v>0.66669999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47888999999999998</c:v>
+                  <c:v>0.75560000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.49999000000000005</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54222000000000004</c:v>
+                  <c:v>0.91110000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.54444000000000004</c:v>
+                  <c:v>0.94440000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.54444000000000004</c:v>
+                  <c:v>0.91110000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.93330000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.54</c:v>
+                  <c:v>0.94440000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.57442999999999989</c:v>
+                  <c:v>0.9778</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.59779000000000004</c:v>
+                  <c:v>0.9889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1919,7 +1924,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Proposed Method</c:v>
+                  <c:v>original images</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1994,34 +1999,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.56111</c:v>
+                  <c:v>0.57779999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77888999999999997</c:v>
+                  <c:v>0.42220000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90333000000000008</c:v>
+                  <c:v>0.5333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.87331999999999999</c:v>
+                  <c:v>0.5222</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.87331999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7799799999999999</c:v>
+                  <c:v>0.55559999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>0.56669999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.77665999999999991</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.95335999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.98668</c:v>
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>0.5333</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>0.57779999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3665,8 +3670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:CW110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3975,7 +3980,7 @@
     </row>
     <row r="7" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1">
         <v>0.5</v>
@@ -4280,7 +4285,7 @@
     </row>
     <row r="8" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1">
         <v>0.5</v>
@@ -4352,10 +4357,10 @@
         <v>0.9889</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="Z8" s="1">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AA8" s="1">
         <v>0.82220000000000004</v>
@@ -4397,10 +4402,10 @@
         <v>1</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AO8" s="1">
-        <v>0.5333</v>
+        <v>0.8</v>
       </c>
       <c r="AP8" s="1">
         <v>0.83330000000000004</v>
@@ -4418,7 +4423,7 @@
         <v>0.9667</v>
       </c>
       <c r="AU8" s="1">
-        <v>0.56669999999999998</v>
+        <v>0.7</v>
       </c>
       <c r="AV8" s="1">
         <v>0.94440000000000002</v>
@@ -4436,7 +4441,7 @@
         <v>0.94440000000000002</v>
       </c>
       <c r="BA8" s="1">
-        <v>0.61109999999999998</v>
+        <v>0.71109999999999995</v>
       </c>
       <c r="BB8" s="1">
         <v>0.78890000000000005</v>
@@ -4445,10 +4450,10 @@
         <v>0.76670000000000005</v>
       </c>
       <c r="BD8" s="1">
-        <v>0.57779999999999998</v>
+        <v>0.71109999999999995</v>
       </c>
       <c r="BE8" s="1">
-        <v>0.5</v>
+        <v>0.78890000000000005</v>
       </c>
       <c r="BF8" s="1">
         <v>0.87780000000000002</v>
@@ -4481,25 +4486,25 @@
         <v>0.93330000000000002</v>
       </c>
       <c r="BP8" s="1">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="BQ8" s="1">
-        <v>0.65559999999999996</v>
+        <v>0.87780000000000002</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.5</v>
+        <v>0.71109999999999995</v>
       </c>
       <c r="BS8" s="1">
-        <v>0.5444</v>
+        <v>0.78890000000000005</v>
       </c>
       <c r="BT8" s="1">
-        <v>0.63329999999999997</v>
+        <v>0.87780000000000002</v>
       </c>
       <c r="BU8" s="1">
-        <v>0.55559999999999998</v>
+        <v>0.9667</v>
       </c>
       <c r="BV8" s="1">
-        <v>0.5111</v>
+        <v>0.9667</v>
       </c>
       <c r="BW8" s="1">
         <v>0.72219999999999995</v>
@@ -4617,47 +4622,37 @@
     </row>
     <row r="11" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <f>AVERAGE(B7:K7)</f>
-        <v>0.53110999999999997</v>
-      </c>
-      <c r="C11">
-        <f>AVERAGE(L7:U7)</f>
-        <v>0.47888999999999998</v>
-      </c>
-      <c r="D11">
-        <f>AVERAGE(V7:AE7)</f>
-        <v>0.49999000000000005</v>
-      </c>
-      <c r="E11">
-        <f>AVERAGE(AF7:AO7)</f>
-        <v>0.54222000000000004</v>
-      </c>
-      <c r="F11">
-        <f>AVERAGE(AP7:AY7)</f>
-        <v>0.54444000000000004</v>
-      </c>
-      <c r="G11">
-        <f>AVERAGE(AP7:AY7)</f>
-        <v>0.54444000000000004</v>
-      </c>
-      <c r="H11">
-        <f>AVERAGE(BJ7:BS7)</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="I11">
-        <f>AVERAGE(BT7:CC7)</f>
-        <v>0.54</v>
-      </c>
-      <c r="J11">
-        <f>AVERAGE(CD7:CM7)</f>
-        <v>0.57442999999999989</v>
-      </c>
-      <c r="K11">
-        <f>AVERAGE(CN7:CW7)</f>
-        <v>0.59779000000000004</v>
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.75560000000000005</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.91110000000000002</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.91110000000000002</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.93330000000000002</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.9778</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.9889</v>
       </c>
       <c r="AV11" s="1">
         <v>0.5</v>
@@ -4665,47 +4660,37 @@
     </row>
     <row r="12" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <f>AVERAGE(B8:K8)</f>
-        <v>0.56111</v>
-      </c>
-      <c r="C12">
-        <f>AVERAGE(L8:U8)</f>
-        <v>0.77888999999999997</v>
-      </c>
-      <c r="D12">
-        <f>AVERAGE(V8:AE8)</f>
-        <v>0.82</v>
-      </c>
-      <c r="E12">
-        <f>AVERAGE(AF8:AO8)</f>
-        <v>0.90333000000000008</v>
-      </c>
-      <c r="F12">
-        <f>AVERAGE(AP8:AY8)</f>
-        <v>0.87331999999999999</v>
-      </c>
-      <c r="G12">
-        <f>AVERAGE(AP8:AY8)</f>
-        <v>0.87331999999999999</v>
-      </c>
-      <c r="H12">
-        <f>AVERAGE(BJ8:BS8)</f>
-        <v>0.7799799999999999</v>
-      </c>
-      <c r="I12">
-        <f>AVERAGE(BT8:CC8)</f>
-        <v>0.77665999999999991</v>
-      </c>
-      <c r="J12">
-        <f>AVERAGE(CD8:CM8)</f>
-        <v>0.95335999999999999</v>
-      </c>
-      <c r="K12">
-        <f>AVERAGE(CN8:CW8)</f>
-        <v>0.98668</v>
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.57779999999999998</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.42220000000000002</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.5333</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.5222</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.56669999999999998</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.5333</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.57779999999999998</v>
       </c>
       <c r="AV12" s="1">
         <v>0.5</v>
